--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1591630.485722032</v>
+        <v>1641202.643507732</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.0964539</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7480907.678655819</v>
+        <v>7930013.969481333</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>195.0202684437962</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>29.32221687376802</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -817,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>264.3838961690496</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>195.9554067738511</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>28.03292271771558</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>52.28570692516541</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>122.2774078338303</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1145,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.99563891744997</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>161.7257111612966</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1294,16 +1296,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105128</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19.50042337073144</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1370,13 +1372,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1385,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>1.599118509381169</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>51.50838742935048</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,10 +1855,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968748</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2002,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>75.64074110079289</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>179.9462302981024</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2144,7 +2146,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>208.642724780751</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>74.61164354303257</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2299,7 +2301,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>132.007166708046</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2372,10 +2374,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>243.833185100996</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>87.92341695801503</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.53944252213973</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2533,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2621,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>174.4275996389298</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.7182174719655</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>20.68378134312494</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>92.80744320528898</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3196,16 +3198,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>75.945880716179</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>61.29526474944429</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3439,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>6.028341476940883</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3563,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>71.36683641495289</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>157.6958910167112</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>136.1769805884533</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>184.9947804868384</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>179.9462302981024</v>
       </c>
       <c r="Y43" t="n">
-        <v>215.7942570968684</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>183.6192611853836</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3983,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>121.0184777454766</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C46" t="n">
-        <v>113.1891847643398</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4153,7 +4155,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1725.862662714072</v>
+        <v>570.6426643811656</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.738072027342</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>911.2741421204023</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>496.933926637299</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>467.315525754705</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>312.7727131152915</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>795.1403494936445</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>1520.157464881917</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>2245.17458027019</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2888.805436687295</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2888.805436687295</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2794.081007170961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2537.020515430471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2537.020515430471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>2537.020515430471</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X2" t="n">
-        <v>2537.020515430471</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2136.083842378561</v>
+        <v>767.6328345264143</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>1075.685744088994</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>1075.685744088994</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1075.685744088994</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>1800.702859477266</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>2195.845472468336</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>2899.80256301423</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2899.80256301423</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2899.80256301423</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.8376327219938</v>
+        <v>653.3302745300582</v>
       </c>
       <c r="C4" t="n">
-        <v>225.8376327219938</v>
+        <v>482.2369020917747</v>
       </c>
       <c r="D4" t="n">
-        <v>225.8376327219938</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="E4" t="n">
-        <v>225.8376327219938</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="F4" t="n">
-        <v>225.8376327219938</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1348.437399245089</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1348.437399245089</v>
+        <v>1304.109541675654</v>
       </c>
       <c r="V4" t="n">
-        <v>1074.551654184611</v>
+        <v>1304.109541675654</v>
       </c>
       <c r="W4" t="n">
-        <v>876.6168998675901</v>
+        <v>1304.109541675654</v>
       </c>
       <c r="X4" t="n">
-        <v>638.2730377272735</v>
+        <v>1065.765679535338</v>
       </c>
       <c r="Y4" t="n">
-        <v>413.5373391160382</v>
+        <v>841.0299809241026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.334260076186</v>
+        <v>1328.195547152093</v>
       </c>
       <c r="C5" t="n">
-        <v>1614.018176522938</v>
+        <v>918.0709564653636</v>
       </c>
       <c r="D5" t="n">
-        <v>1613.594650656403</v>
+        <v>513.6070265584241</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.254435173299</v>
+        <v>503.3072151157248</v>
       </c>
       <c r="F5" t="n">
-        <v>778.224023126987</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4957390198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>58.5872416475372</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>58.5872416475372</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>783.60435703581</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1435.413521245312</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>2079.044377662417</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2608.201075581568</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2707.155598323719</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2450.095106583229</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2450.095106583229</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>2450.095106583229</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X5" t="n">
-        <v>2049.451708752182</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="Y5" t="n">
-        <v>1648.515035700272</v>
+        <v>1738.416726816583</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.481669832124</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.481669832124</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>1879.438760378019</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>817.3330748333003</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>817.3330748333003</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>817.3330748333003</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>656.4222597016197</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>491.791133812211</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1502.713419943787</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1379.200886778302</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1096.402739324426</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1096.402739324426</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>817.3330748333003</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>817.3330748333003</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>817.3330748333003</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2110.494529892595</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1700.369939205865</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.906009298925</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>881.5657938158222</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>460.5353817695098</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>455.8475017027461</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>850.932214224331</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>1563.523614036569</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>1563.523614036569</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>1563.523614036569</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>2079.044377662417</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>2608.201075581568</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>2918.255376399638</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="V8" t="n">
-        <v>2918.255376399638</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>2918.255376399638</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>2517.611978568591</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2116.675305516681</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>719.6754135668255</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>719.6754135668255</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="N9" t="n">
-        <v>719.6754135668255</v>
+        <v>1802.652898273553</v>
       </c>
       <c r="O9" t="n">
-        <v>1193.526080325524</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>881.9675908584566</v>
+        <v>411.6819453910188</v>
       </c>
       <c r="C10" t="n">
-        <v>710.8742184201731</v>
+        <v>240.5885729527353</v>
       </c>
       <c r="D10" t="n">
-        <v>551.379573743083</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>390.4687586114026</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>225.8376327219938</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1568.288740924214</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1568.288740924214</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1568.288740924214</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1294.402995863736</v>
+        <v>1341.530877027741</v>
       </c>
       <c r="W10" t="n">
-        <v>1294.402995863736</v>
+        <v>1062.461212536615</v>
       </c>
       <c r="X10" t="n">
-        <v>1294.402995863736</v>
+        <v>824.1173503962984</v>
       </c>
       <c r="Y10" t="n">
-        <v>1069.667297252501</v>
+        <v>599.3816517850631</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>976.3129717055415</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>976.3129717055415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>976.3129717055415</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>976.3129717055415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>555.282559659229</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>146.5542755520612</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>144.9390043304641</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>991.0007669627659</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1716.017882351039</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2359.648738768144</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>2571.87452311782</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V11" t="n">
-        <v>2571.87452311782</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>2188.114222252988</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>1787.470824421941</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>1386.534151370031</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N12" t="n">
-        <v>1508.621472424083</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2169.303348048851</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1759.178757362121</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1354.714827455182</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>940.3746119720786</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>519.3441999257661</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>110.6159158185983</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1394.856875555747</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1394.856875555747</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2038.487731972852</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2567.644429892003</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>2579.524527713341</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>2579.524527713341</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2579.524527713341</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2579.524527713341</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>719.6754135668255</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M15" t="n">
-        <v>1444.692528955098</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N15" t="n">
-        <v>1444.692528955098</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5510,13 +5512,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>749.3736558270855</v>
+        <v>453.2449236514532</v>
       </c>
       <c r="C19" t="n">
-        <v>578.280283388802</v>
+        <v>453.2449236514532</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>453.2449236514532</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>453.2449236514532</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>453.2449236514532</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>285.9945325769966</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W19" t="n">
-        <v>1343.572929820347</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X19" t="n">
-        <v>1161.809060832365</v>
+        <v>865.6803286567329</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.0733622211299</v>
+        <v>640.9446300454975</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5783,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5840,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3460.947194116427</v>
+        <v>905.320686964405</v>
       </c>
       <c r="C22" t="n">
-        <v>3460.947194116427</v>
+        <v>734.2273145261215</v>
       </c>
       <c r="D22" t="n">
-        <v>3460.947194116427</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E22" t="n">
-        <v>3300.036378984746</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F22" t="n">
-        <v>3300.036378984746</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1462.004579478759</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1462.004579478759</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>1179.206432024883</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>905.320686964405</v>
       </c>
       <c r="W22" t="n">
-        <v>3460.947194116427</v>
+        <v>905.320686964405</v>
       </c>
       <c r="X22" t="n">
-        <v>3460.947194116427</v>
+        <v>905.320686964405</v>
       </c>
       <c r="Y22" t="n">
-        <v>3460.947194116427</v>
+        <v>905.320686964405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
         <v>1648.251106699488</v>
@@ -5987,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6020,19 +6022,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4619.215750670392</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4432.823982550302</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4193.275243527004</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>3910.477096073128</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3636.59135101265</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W25" t="n">
-        <v>3357.521686521525</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X25" t="n">
-        <v>3357.521686521525</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>1100.295707834299</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6254,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3536.245462056399</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3135.602064225352</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>526.4475898552967</v>
+        <v>886.5906088412762</v>
       </c>
       <c r="C28" t="n">
-        <v>526.4475898552967</v>
+        <v>715.4972364029927</v>
       </c>
       <c r="D28" t="n">
-        <v>526.4475898552967</v>
+        <v>556.0025917259027</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4475898552967</v>
+        <v>395.0917765942222</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1601.749885884074</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>1362.201146860776</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U28" t="n">
-        <v>1079.4029994069</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V28" t="n">
-        <v>805.5172543464223</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W28" t="n">
-        <v>526.4475898552967</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X28" t="n">
-        <v>526.4475898552967</v>
+        <v>1299.026013846556</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.4475898552967</v>
+        <v>1074.290315235321</v>
       </c>
     </row>
     <row r="29">
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>592.7987223006619</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>1435.775802995229</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4144.771357899697</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>4383.115220040014</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>4144.771357899697</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>4144.771357899697</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6788,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>916.2303367455215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1789.888428857139</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>850.6960310278942</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C34" t="n">
-        <v>679.6026585896107</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D34" t="n">
-        <v>520.1080139125206</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E34" t="n">
-        <v>359.19719878084</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F34" t="n">
-        <v>359.19719878084</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X34" t="n">
-        <v>1263.131436033174</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y34" t="n">
-        <v>1038.395737421939</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>741.8628115185547</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>741.8628115185547</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.6240469015422</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="C37" t="n">
-        <v>745.5306744632587</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="D37" t="n">
-        <v>586.0360297861687</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E37" t="n">
-        <v>425.1252146544881</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F37" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V37" t="n">
-        <v>1348.756849250995</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="W37" t="n">
-        <v>1342.667615435903</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="X37" t="n">
-        <v>1104.323753295587</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="Y37" t="n">
-        <v>1104.323753295587</v>
+        <v>3953.446229933875</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3717.522912482355</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="C40" t="n">
-        <v>3717.522912482355</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="D40" t="n">
-        <v>3558.028267805265</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E40" t="n">
-        <v>3558.028267805265</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F40" t="n">
-        <v>3558.028267805265</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G40" t="n">
         <v>3398.739489000507</v>
@@ -7354,28 +7356,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T40" t="n">
-        <v>4422.636145507842</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U40" t="n">
-        <v>4422.636145507842</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V40" t="n">
-        <v>4422.636145507842</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="W40" t="n">
-        <v>4143.566481016716</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="X40" t="n">
-        <v>3905.2226188764</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="Y40" t="n">
-        <v>3905.2226188764</v>
+        <v>3730.621005964372</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2110.07100402606</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1699.94641333933</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1699.94641333933</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>1285.606197856226</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>864.5757858099139</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>455.8475017027461</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1496.195756848048</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2221.212872236321</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2864.843728653426</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2864.843728653426</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2707.155598323719</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2707.155598323719</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2707.155598323719</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2707.155598323719</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2520.292183690549</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2520.292183690549</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>514.3934979128359</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>1175.481669832124</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>1175.481669832124</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N42" t="n">
-        <v>1543.370545009507</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O42" t="n">
-        <v>1543.370545009507</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1399.96318575601</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C43" t="n">
-        <v>1399.96318575601</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D43" t="n">
-        <v>1399.96318575601</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>1399.96318575601</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.045735161221</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>1568.598062883459</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.495163163519</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>2117.759219604013</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>2398.598001998263</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>2658.158612324737</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>2863.834052574349</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>2844.08936405226</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>2657.69759593217</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>2418.148856908872</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>2135.350709454996</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>2135.350709454996</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>1856.281044963871</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X43" t="n">
-        <v>1617.937182823554</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y43" t="n">
-        <v>1399.96318575601</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2136.083842378561</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1725.959251691831</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1321.495321784892</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.254435173299</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>778.224023126987</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>486.4050582743873</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1198.996458086625</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1924.013573474898</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1924.013573474898</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2567.644429892003</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>2537.020515430471</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V44" t="n">
-        <v>2537.020515430471</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W44" t="n">
-        <v>2537.020515430471</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X44" t="n">
-        <v>2537.020515430471</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y44" t="n">
-        <v>2136.083842378561</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>707.2063554754692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>707.2063554754692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>707.2063554754692</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N45" t="n">
-        <v>707.2063554754692</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>1193.526080325524</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1755.231972814054</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>654.4087236689153</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>540.0762138059458</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>540.0762138059458</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>540.0762138059458</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>375.4450879165371</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>208.1946968420806</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>1305.187990814512</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V46" t="n">
-        <v>1305.187990814512</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W46" t="n">
-        <v>1305.187990814512</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X46" t="n">
-        <v>1066.844128674195</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y46" t="n">
-        <v>842.1084300629597</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
-        <v>582.725434808656</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8064,19 +8066,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>789.9048043326325</v>
+        <v>502.6011371814508</v>
       </c>
       <c r="N3" t="n">
-        <v>452.327345909982</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8216,25 +8218,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>751.305385917732</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>282.1764805785802</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>531.8357165796273</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>613.9178196922957</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
@@ -8474,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>536.3885161299983</v>
+        <v>390.9373608629447</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>315.3327754701673</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8775,13 +8777,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>723.2682386954006</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8945,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9009,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>724.8059320736758</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>361.079260496652</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9501,7 +9503,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9957,19 +9959,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>178.5117997957786</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10194,7 +10196,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>560.7155587704844</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
@@ -10203,7 +10205,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10434,19 +10436,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>888.8639191474061</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>519.1254239367926</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10908,13 +10910,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>114.237549887909</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,16 +11147,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>424.7983178153489</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>145.24409210237</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>264.5225969046271</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>548.9835243030853</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>306.200293889178</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>256.2910249692087</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23741,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>72.47063954180501</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>56.01419322081099</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>187.994239071986</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>109.9162068958563</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>144.2718011381683</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>81.45902175588563</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.88054861921461</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>222.499706682461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>12.26659715854919</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>163.8440690957639</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>76.57499550861168</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25138,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>160.0145428027344</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>96.60443348087477</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>270.2506263692734</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>308.5558614412302</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>7.881996147000848</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>134.9699070214199</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>211.6421833658986</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>56.01419322081099</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.694084528254479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>289.1783355827957</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C46" t="n">
-        <v>56.1932539495609</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26077,7 +26079,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26086,7 +26088,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>744284.5285653378</v>
+        <v>742627.631157955</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>744284.5285653378</v>
+        <v>742627.631157955</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>744284.5285653378</v>
+        <v>746986.292683794</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512473.1735419275</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512473.1735419277</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666436.7477608798</v>
+        <v>666436.7477608799</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608798</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608798</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512473.1735419278</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512473.1735419278</v>
+        <v>666436.7477608799</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811423</v>
+        <v>407205.9825811422</v>
       </c>
       <c r="C2" t="n">
         <v>407205.9825811423</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811424</v>
+        <v>407205.9825811426</v>
       </c>
       <c r="E2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188675</v>
       </c>
       <c r="F2" t="n">
-        <v>278421.8964570258</v>
+        <v>362060.8344188676</v>
       </c>
       <c r="G2" t="n">
         <v>362060.8344188675</v>
       </c>
       <c r="H2" t="n">
+        <v>362060.8344188675</v>
+      </c>
+      <c r="I2" t="n">
         <v>362060.8344188674</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>362060.8344188675</v>
-      </c>
-      <c r="J2" t="n">
-        <v>362060.8344188673</v>
       </c>
       <c r="K2" t="n">
         <v>362060.8344188675</v>
       </c>
       <c r="L2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188675</v>
       </c>
       <c r="M2" t="n">
         <v>362060.8344188674</v>
@@ -26350,10 +26352,10 @@
         <v>362060.8344188674</v>
       </c>
       <c r="O2" t="n">
-        <v>278421.8964570256</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="P2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188674</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129456.2246430208</v>
+        <v>164775.2337200961</v>
       </c>
       <c r="C4" t="n">
-        <v>129456.2246430208</v>
+        <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>129456.2246430208</v>
+        <v>71864.46850972364</v>
       </c>
       <c r="E4" t="n">
-        <v>11847.07869616807</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>11847.07869616807</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>11847.07869616807</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>11847.07869616807</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45828.29799710184</v>
+        <v>2106.173889434547</v>
       </c>
       <c r="C6" t="n">
-        <v>199595.8542859932</v>
+        <v>177061.6837825487</v>
       </c>
       <c r="D6" t="n">
-        <v>199595.8542859934</v>
+        <v>64512.97380615026</v>
       </c>
       <c r="E6" t="n">
-        <v>222048.5141087293</v>
+        <v>248761.296255996</v>
       </c>
       <c r="F6" t="n">
-        <v>222048.5141087294</v>
+        <v>275730.2504369303</v>
       </c>
       <c r="G6" t="n">
-        <v>156995.0660048162</v>
+        <v>275730.2504369303</v>
       </c>
       <c r="H6" t="n">
         <v>275730.2504369302</v>
       </c>
       <c r="I6" t="n">
-        <v>275730.2504369302</v>
+        <v>275730.2504369301</v>
       </c>
       <c r="J6" t="n">
-        <v>84117.74726657719</v>
+        <v>139135.4496310353</v>
       </c>
       <c r="K6" t="n">
         <v>275730.2504369302</v>
       </c>
       <c r="L6" t="n">
-        <v>275730.2504369301</v>
+        <v>135730.9395721774</v>
       </c>
       <c r="M6" t="n">
-        <v>275730.2504369301</v>
+        <v>253220.9856628827</v>
       </c>
       <c r="N6" t="n">
         <v>275730.2504369302</v>
       </c>
       <c r="O6" t="n">
-        <v>222048.5141087293</v>
+        <v>275730.25043693</v>
       </c>
       <c r="P6" t="n">
-        <v>222048.5141087293</v>
+        <v>275730.2504369301</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>211.0986994240483</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>387.4978910520813</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27590,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>15.58626981028749</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>80.32356107236328</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>377.990422062147</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>364.5344010006839</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27667,22 +27669,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>114.8758437992346</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>243.494247905635</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>184.6134679555875</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28059,7 +28061,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>165.0274270681574</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
-        <v>487.2400367458112</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>732.340520594215</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="N3" t="n">
-        <v>399.133952516232</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>658.3930951611127</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>227.9168455757764</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>442.6993269064101</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>520.7280440665126</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
@@ -35194,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>478.6370371299982</v>
+        <v>333.1858818629447</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>222.0425510131218</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>629.9780142383551</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35665,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>667.0544530736757</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>303.327781496652</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>120.9475160573612</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>504.6010349596355</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
@@ -36923,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>831.2996354089887</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3739449367926</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>24.20374548875697</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>175.3862072314099</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>491.2320453030854</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1641202.643507732</v>
+        <v>1639889.998052152</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.811029739</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7930013.969481333</v>
+        <v>7930013.969481334</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.0202684437962</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>318.3574424713249</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>264.3838961690496</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>80.02871049750352</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>52.28570692516541</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>320.8067187332984</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1147,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>161.7257111612966</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>153.0251390105128</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.2715627317511</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>13.98329378456244</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1584,16 +1584,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>144.2018606410491</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1855,10 +1855,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>378.9769832968748</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>71.36683641495289</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2004,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>34.34280392109675</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>75.64074110079289</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>74.61164354303257</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2301,10 +2301,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>135.8663667798421</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>33.56006068271974</v>
       </c>
       <c r="C25" t="n">
-        <v>87.92341695801503</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2532,10 +2532,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2724,7 +2724,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>150.7182174719655</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>106.213514929219</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2952,10 +2952,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0.1210561135353828</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2964,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3189,22 +3189,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>114.1284881656941</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>351.080144279057</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>61.29526474944429</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3441,7 +3441,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -3483,7 +3483,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>51.50694716172411</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="W38" t="n">
-        <v>71.36683641495289</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>98.41262563052148</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3720,13 +3720,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>136.1769805884533</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>182.1412945836354</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.51097958132463</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>179.9462302981024</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>183.6192611853836</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.7560630900389</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>129.1752199258842</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570.6426643811656</v>
+        <v>1596.954875986598</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>1186.830285299868</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>782.3663553929287</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>368.0261399098254</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>176.0078249962696</v>
+      </c>
+      <c r="M2" t="n">
+        <v>176.0078249962696</v>
+      </c>
+      <c r="N2" t="n">
         <v>692.8507596625949</v>
-      </c>
-      <c r="L2" t="n">
-        <v>692.8507596625949</v>
-      </c>
-      <c r="M2" t="n">
-        <v>692.8507596625949</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
         <v>1209.69369432892</v>
@@ -4366,16 +4366,16 @@
         <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W2" t="n">
-        <v>1569.212905409372</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X2" t="n">
-        <v>1168.569507578324</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y2" t="n">
-        <v>767.6328345264143</v>
+        <v>1603.135651610684</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>653.3302745300582</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>482.2369020917747</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4518,22 +4518,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1304.109541675654</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>1304.109541675654</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>1304.109541675654</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>1065.765679535338</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>841.0299809241026</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.195547152093</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>918.0709564653636</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D5" t="n">
-        <v>513.6070265584241</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E5" t="n">
-        <v>503.3072151157248</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4603,16 +4603,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4685,13 +4685,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1416.891925653415</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1012.427995746475</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>598.0877802633718</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>177.0573682170593</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225776</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
@@ -4831,25 +4831,25 @@
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368438</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368438</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4300.886273368438</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>4137.526969165108</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>86.01772546736876</v>
+        <v>1395.725011214589</v>
       </c>
       <c r="M9" t="n">
-        <v>928.9948061619355</v>
+        <v>1428.549830771974</v>
       </c>
       <c r="N9" t="n">
-        <v>1802.652898273553</v>
+        <v>1428.549830771974</v>
       </c>
       <c r="O9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>411.6819453910188</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>240.5885729527353</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736876</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736876</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4998,16 +4998,16 @@
         <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1341.530877027741</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1062.461212536615</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>824.1173503962984</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>599.3816517850631</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4537.668154499068</v>
       </c>
       <c r="T11" t="n">
-        <v>4662.18488453114</v>
+        <v>4315.461670445927</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.590496051882</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5126,13 +5126,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>1196.702087168085</v>
       </c>
     </row>
     <row r="14">
@@ -5357,19 +5357,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>423.0977207349383</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>1266.074801429505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
         <v>2139.732893541123</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1476.984149219504</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5512,7 +5512,7 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
         <v>347.4291691583771</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>453.2449236514532</v>
+        <v>885.3857319582949</v>
       </c>
       <c r="C19" t="n">
-        <v>453.2449236514532</v>
+        <v>714.2923595200114</v>
       </c>
       <c r="D19" t="n">
-        <v>453.2449236514532</v>
+        <v>554.7977148429213</v>
       </c>
       <c r="E19" t="n">
-        <v>453.2449236514532</v>
+        <v>393.8868997112408</v>
       </c>
       <c r="F19" t="n">
-        <v>453.2449236514532</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G19" t="n">
-        <v>285.9945325769966</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.024190797049</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="X19" t="n">
-        <v>865.6803286567329</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="Y19" t="n">
-        <v>640.9446300454975</v>
+        <v>1073.085438352339</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5840,16 +5840,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>905.320686964405</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C22" t="n">
-        <v>734.2273145261215</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D22" t="n">
-        <v>574.7326698490315</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E22" t="n">
-        <v>574.7326698490315</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F22" t="n">
         <v>410.1015439596227</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1462.004579478759</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1462.004579478759</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1179.206432024883</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>905.320686964405</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>905.320686964405</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>905.320686964405</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.320686964405</v>
+        <v>410.1015439596227</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
         <v>1648.251106699488</v>
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1100.295707834299</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E25" t="n">
         <v>691.0787157447054</v>
@@ -6180,19 +6180,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X25" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="Y25" t="n">
-        <v>1100.295707834299</v>
+        <v>884.4724116164617</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6314,16 +6314,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>886.5906088412762</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="C28" t="n">
-        <v>715.4972364029927</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="D28" t="n">
-        <v>556.0025917259027</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E28" t="n">
-        <v>395.0917765942222</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.369875986873</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X28" t="n">
-        <v>1299.026013846556</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="Y28" t="n">
-        <v>1074.290315235321</v>
+        <v>679.6026585896107</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6657,16 +6657,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4097.330235996674</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4011.405617385543</v>
+        <v>373.1561247575004</v>
       </c>
       <c r="C34" t="n">
-        <v>3840.31224494726</v>
+        <v>373.1561247575004</v>
       </c>
       <c r="D34" t="n">
-        <v>3680.81760027017</v>
+        <v>373.1561247575004</v>
       </c>
       <c r="E34" t="n">
-        <v>3519.906785138489</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F34" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="X34" t="n">
-        <v>4423.841022390823</v>
+        <v>785.5915297627801</v>
       </c>
       <c r="Y34" t="n">
-        <v>4199.105323779588</v>
+        <v>560.8558311515447</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3953.446229933875</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="C37" t="n">
-        <v>3953.446229933875</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D37" t="n">
-        <v>3891.531821096053</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4475.79311641105</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>4236.244377387751</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>3953.446229933875</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V37" t="n">
-        <v>3953.446229933875</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="W37" t="n">
-        <v>3953.446229933875</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="X37" t="n">
-        <v>3953.446229933875</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="Y37" t="n">
-        <v>3953.446229933875</v>
+        <v>861.8767203589325</v>
       </c>
     </row>
     <row r="38">
@@ -7210,7 +7210,7 @@
         <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
         <v>3760.992640523532</v>
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3730.621005964372</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C40" t="n">
-        <v>3730.621005964372</v>
+        <v>308.996436142379</v>
       </c>
       <c r="D40" t="n">
-        <v>3730.621005964372</v>
+        <v>308.996436142379</v>
       </c>
       <c r="E40" t="n">
-        <v>3730.621005964372</v>
+        <v>308.996436142379</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>308.996436142379</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>308.996436142379</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.621005964372</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>3730.621005964372</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>3730.621005964372</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>3730.621005964372</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E41" t="n">
-        <v>923.0023938441032</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4342.922703685204</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.3736558270855</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="C43" t="n">
-        <v>578.280283388802</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="D43" t="n">
-        <v>418.7856387117121</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1487.358785500686</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1247.810046477388</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>965.0118990235123</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>965.0118990235123</v>
       </c>
       <c r="W43" t="n">
-        <v>1343.572929820347</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="X43" t="n">
-        <v>1161.809060832365</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.0733622211299</v>
+        <v>685.9422345323867</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3135.602064225352</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2734.665391173442</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.369875986873</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V46" t="n">
-        <v>1537.369875986873</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W46" t="n">
-        <v>1537.369875986873</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X46" t="n">
-        <v>1537.369875986873</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="Y46" t="n">
-        <v>1312.634177375637</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>490.0456851936601</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7993,7 +7993,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>502.6011371814508</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>394.6973592394724</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8227,16 +8227,16 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>593.882383535937</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>90.72066712971576</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629447</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8774,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8932,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>758.4864973512193</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9251,19 +9251,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9488,19 +9488,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9725,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10199,19 +10199,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>531.8304305237483</v>
       </c>
       <c r="O30" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>418.7392830976428</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>145.24409210237</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>10.65670172208908</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>171.8394155455415</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>92.9513909920158</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>308.5558614412302</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>128.6420107094179</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>72.47063954180501</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23952,10 +23952,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>109.9162068958563</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>100.0940567390713</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>152.2626486473842</v>
       </c>
       <c r="C25" t="n">
-        <v>81.45902175588563</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24432,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.26659715854919</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24657,19 +24657,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>116.2748266959039</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.7786421167837</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>45.17321881466958</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>45.84716204233382</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>96.60443348087477</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>219.6399404481492</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>308.5558614412299</v>
       </c>
       <c r="W38" t="n">
-        <v>308.5558614412302</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>49.69875501207643</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>134.9699070214199</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>37.84312462897432</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>135.0168708575642</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>56.01419322081099</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.0666462400651</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>93.31312169923876</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608799</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608802</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666436.7477608802</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666436.7477608799</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666436.7477608798</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666436.7477608799</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666436.7477608799</v>
+        <v>666436.7477608802</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608802</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666436.7477608798</v>
+        <v>666436.7477608799</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666436.7477608799</v>
+        <v>666436.7477608802</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608799</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666436.7477608799</v>
+        <v>666436.7477608802</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811422</v>
+        <v>407205.9825811423</v>
       </c>
       <c r="C2" t="n">
         <v>407205.9825811423</v>
@@ -26325,25 +26325,25 @@
         <v>362060.8344188675</v>
       </c>
       <c r="F2" t="n">
-        <v>362060.8344188676</v>
+        <v>362060.8344188675</v>
       </c>
       <c r="G2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="H2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="I2" t="n">
+        <v>362060.8344188673</v>
+      </c>
+      <c r="J2" t="n">
         <v>362060.8344188674</v>
       </c>
-      <c r="J2" t="n">
-        <v>362060.8344188675</v>
-      </c>
       <c r="K2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="L2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="M2" t="n">
         <v>362060.8344188674</v>
@@ -26423,7 +26423,7 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>71864.46850972364</v>
+        <v>71864.46850972369</v>
       </c>
       <c r="E4" t="n">
         <v>15465.37373706398</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2106.173889434547</v>
+        <v>2106.173889434569</v>
       </c>
       <c r="C6" t="n">
         <v>177061.6837825487</v>
       </c>
       <c r="D6" t="n">
-        <v>64512.97380615026</v>
+        <v>64512.97380615014</v>
       </c>
       <c r="E6" t="n">
-        <v>248761.296255996</v>
+        <v>248580.7156633469</v>
       </c>
       <c r="F6" t="n">
-        <v>275730.2504369303</v>
+        <v>275549.6698442811</v>
       </c>
       <c r="G6" t="n">
-        <v>275730.2504369303</v>
+        <v>275549.669844281</v>
       </c>
       <c r="H6" t="n">
-        <v>275730.2504369302</v>
+        <v>275549.6698442809</v>
       </c>
       <c r="I6" t="n">
-        <v>275730.2504369301</v>
+        <v>275549.6698442809</v>
       </c>
       <c r="J6" t="n">
-        <v>139135.4496310353</v>
+        <v>138954.869038386</v>
       </c>
       <c r="K6" t="n">
-        <v>275730.2504369302</v>
+        <v>275549.669844281</v>
       </c>
       <c r="L6" t="n">
-        <v>135730.9395721774</v>
+        <v>135550.3589795282</v>
       </c>
       <c r="M6" t="n">
-        <v>253220.9856628827</v>
+        <v>253040.4050702336</v>
       </c>
       <c r="N6" t="n">
-        <v>275730.2504369302</v>
+        <v>275549.669844281</v>
       </c>
       <c r="O6" t="n">
-        <v>275730.25043693</v>
+        <v>275549.6698442809</v>
       </c>
       <c r="P6" t="n">
-        <v>275730.2504369301</v>
+        <v>275549.669844281</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211.0986994240483</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>98.46266545452437</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>15.58626981028749</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>325.994634282359</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>364.5344010006839</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27675,7 +27675,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>85.21662604656416</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>184.6134679555875</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4.874559219806258</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>445.0368534430334</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>33.15638339129833</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629447</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>700.9222136128019</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="O30" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
